--- a/Source/GraduateThesisManagement/GraduateThesis.Web/wwwroot/reports/pending-thesis_export.xlsx
+++ b/Source/GraduateThesisManagement/GraduateThesis.Web/wwwroot/reports/pending-thesis_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUFI_GRADUATE-THESIS\HUFI_graduate-thesis-management\Source\GraduateThesisManagement\GraduateThesis.Web\wwwroot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C14ECBF-C7F9-454C-A2C0-0C8C340D80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6B4FF-218C-477B-A2F9-38D8C83C703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9618D36F-91D3-4472-B248-079CF11FD3FC}"/>
   </bookViews>
@@ -92,13 +92,13 @@
     <t>{{Items.TopicName}}</t>
   </si>
   <si>
-    <t>{{Items.LectureName}}</t>
-  </si>
-  <si>
     <t>Giảng viên ra đề</t>
   </si>
   <si>
     <t>{{Name}}</t>
+  </si>
+  <si>
+    <t>{{Items.LecturerName}}</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -557,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="33.6" customHeight="1" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -583,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -615,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
